--- a/shinyapp/data/povertybyageandsexnewss.xlsx
+++ b/shinyapp/data/povertybyageandsexnewss.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BF97E0B-B50E-5D47-9E79-0124AFE2530F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7902D15B-D664-654C-95B1-63164B4CEDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>±488</t>
   </si>
   <si>
-    <t>Male:</t>
-  </si>
-  <si>
     <t>Under 5 years</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>±50</t>
   </si>
   <si>
-    <t>Female:</t>
-  </si>
-  <si>
     <t>87</t>
   </si>
   <si>
@@ -401,10 +395,16 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
+    <t xml:space="preserve"> Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Male:</t>
+  </si>
+  <si>
+    <t>Fe Male:</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -423,6 +423,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -836,7 +837,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -856,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -883,195 +884,195 @@
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>128</v>
@@ -1079,13 +1080,13 @@
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>128</v>
@@ -1093,13 +1094,13 @@
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>128</v>
@@ -1107,13 +1108,13 @@
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -1121,13 +1122,13 @@
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
         <v>128</v>
@@ -1135,13 +1136,13 @@
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>128</v>
@@ -1149,13 +1150,13 @@
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>128</v>
@@ -1163,13 +1164,13 @@
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>128</v>
@@ -1177,13 +1178,13 @@
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
         <v>128</v>
@@ -1191,13 +1192,13 @@
     </row>
     <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
         <v>128</v>
@@ -1205,13 +1206,13 @@
     </row>
     <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
         <v>128</v>
@@ -1219,13 +1220,13 @@
     </row>
     <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
         <v>128</v>
@@ -1233,13 +1234,13 @@
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
         <v>128</v>
@@ -1247,321 +1248,321 @@
     </row>
     <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/shinyapp/data/povertybyageandsexnewss.xlsx
+++ b/shinyapp/data/povertybyageandsexnewss.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896266CB-A034-6949-9F68-33C2B0389A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7902D15B-D664-654C-95B1-63164B4CEDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>±488</t>
   </si>
   <si>
-    <t>Male:</t>
-  </si>
-  <si>
     <t>Under 5 years</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>±50</t>
   </si>
   <si>
-    <t>Female:</t>
-  </si>
-  <si>
     <t>87</t>
   </si>
   <si>
@@ -401,10 +395,16 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
+    <t xml:space="preserve"> Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Male:</t>
+  </si>
+  <si>
+    <t>Fe Male:</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -423,6 +423,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -836,7 +837,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -856,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -883,195 +884,195 @@
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>128</v>
@@ -1079,13 +1080,13 @@
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>128</v>
@@ -1093,13 +1094,13 @@
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>128</v>
@@ -1107,13 +1108,13 @@
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -1121,13 +1122,13 @@
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
         <v>128</v>
@@ -1135,13 +1136,13 @@
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>128</v>
@@ -1149,13 +1150,13 @@
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>128</v>
@@ -1163,13 +1164,13 @@
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>128</v>
@@ -1177,13 +1178,13 @@
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
         <v>128</v>
@@ -1191,13 +1192,13 @@
     </row>
     <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
         <v>128</v>
@@ -1205,13 +1206,13 @@
     </row>
     <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
         <v>128</v>
@@ -1219,13 +1220,13 @@
     </row>
     <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
         <v>128</v>
@@ -1233,13 +1234,13 @@
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
         <v>128</v>
@@ -1247,321 +1248,321 @@
     </row>
     <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
